--- a/RDV.xlsx
+++ b/RDV.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5677" uniqueCount="503">
   <si>
     <t>idRDV</t>
   </si>
@@ -1536,24 +1536,6 @@
   </si>
   <si>
     <t>Validé</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>01/01/2001</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>01/01/2010</t>
   </si>
 </sst>
 </file>
@@ -1962,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C282" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q307"/>
+    <sheetView tabSelected="1" topLeftCell="C280" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,17 +2057,17 @@
       <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1">
-        <v>8</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
+      <c r="L2" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O2" s="1">
-        <v>30</v>
+      <c r="O2" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>92</v>
@@ -2128,17 +2110,17 @@
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1">
-        <v>8</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
+      <c r="L3" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O3" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>92</v>
@@ -2181,14 +2163,14 @@
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="1">
-        <v>8</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
+      <c r="L4" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O4" s="1">
         <v>0</v>
@@ -2234,17 +2216,17 @@
       <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="1">
-        <v>8</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
+      <c r="L5" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O5" s="1">
-        <v>30</v>
+      <c r="O5" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>92</v>
@@ -2287,17 +2269,17 @@
       <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="1">
-        <v>8</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
+      <c r="L6" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O6" s="1">
-        <v>30</v>
+      <c r="O6" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>92</v>
@@ -2340,17 +2322,17 @@
       <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="1">
-        <v>13</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
+      <c r="L7" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>92</v>
@@ -2393,17 +2375,17 @@
       <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="1">
-        <v>15</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
+      <c r="L8" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>15.0</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>92</v>
@@ -2446,17 +2428,17 @@
       <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="1">
-        <v>13</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
+      <c r="L9" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
+      <c r="O9" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>92</v>
@@ -2505,17 +2487,17 @@
       <c r="K10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L10" s="1">
-        <v>8</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
+      <c r="L10" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O10" s="1">
-        <v>30</v>
+        <v>159</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>45.0</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>92</v>
@@ -2558,17 +2540,17 @@
       <c r="K11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="1">
-        <v>8</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
+      <c r="L11" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>15.0</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>92</v>
@@ -2611,17 +2593,17 @@
       <c r="K12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L12" s="1">
-        <v>8</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
+      <c r="L12" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O12" s="1">
-        <v>30</v>
+      <c r="O12" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>92</v>
@@ -2664,17 +2646,17 @@
       <c r="K13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="1">
-        <v>15</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
+      <c r="L13" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>92</v>
@@ -2717,17 +2699,17 @@
       <c r="K14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="1">
-        <v>13</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
+      <c r="L14" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O14" s="1">
-        <v>0</v>
+      <c r="O14" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>92</v>
@@ -2770,17 +2752,17 @@
       <c r="K15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L15" s="1">
-        <v>10</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
+      <c r="L15" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>92</v>
@@ -2823,17 +2805,17 @@
       <c r="K16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L16" s="1">
-        <v>8</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
+      <c r="L16" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O16" s="1">
-        <v>30</v>
+      <c r="O16" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>92</v>
@@ -2876,17 +2858,17 @@
       <c r="K17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="1">
-        <v>16</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
+      <c r="L17" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O17" s="1">
-        <v>0</v>
+      <c r="O17" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>92</v>
@@ -2929,17 +2911,17 @@
       <c r="K18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="1">
-        <v>13</v>
-      </c>
-      <c r="M18" s="1">
-        <v>0</v>
+      <c r="L18" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>92</v>
@@ -2982,17 +2964,17 @@
       <c r="K19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L19" s="1">
-        <v>13</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
+      <c r="L19" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>92</v>
@@ -3035,17 +3017,17 @@
       <c r="K20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L20" s="1">
-        <v>8</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0</v>
+      <c r="L20" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O20" s="1">
-        <v>0</v>
+      <c r="O20" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>92</v>
@@ -3088,17 +3070,17 @@
       <c r="K21" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L21" s="1">
-        <v>13</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0</v>
+      <c r="L21" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O21" s="1">
-        <v>0</v>
+      <c r="O21" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>92</v>
@@ -3141,17 +3123,17 @@
       <c r="K22" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L22" s="1">
-        <v>8</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0</v>
+      <c r="L22" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O22" s="1">
-        <v>30</v>
+        <v>161</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>92</v>
@@ -3194,17 +3176,17 @@
       <c r="K23" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L23" s="1">
-        <v>8</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0</v>
+      <c r="L23" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O23" s="1">
-        <v>30</v>
+        <v>158</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>92</v>
@@ -3247,17 +3229,17 @@
       <c r="K24" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L24" s="1">
-        <v>16</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0</v>
+      <c r="L24" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O24" s="1">
-        <v>0</v>
+      <c r="O24" s="1" t="n">
+        <v>20.0</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>92</v>
@@ -3300,17 +3282,17 @@
       <c r="K25" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L25" s="1">
-        <v>13</v>
-      </c>
-      <c r="M25" s="1">
-        <v>0</v>
+      <c r="L25" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O25" s="1">
-        <v>0</v>
+      <c r="O25" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>92</v>
@@ -3353,17 +3335,17 @@
       <c r="K26" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L26" s="1">
-        <v>13</v>
-      </c>
-      <c r="M26" s="1">
-        <v>0</v>
+      <c r="L26" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O26" s="1">
-        <v>0</v>
+      <c r="O26" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>92</v>
@@ -3406,14 +3388,14 @@
       <c r="K27" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L27" s="1">
-        <v>8</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0</v>
+      <c r="L27" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O27" s="1">
         <v>0</v>
@@ -3459,17 +3441,17 @@
       <c r="K28" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L28" s="1">
-        <v>9</v>
-      </c>
-      <c r="M28" s="1">
-        <v>0</v>
+      <c r="L28" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O28" s="1">
-        <v>30</v>
+      <c r="O28" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>92</v>
@@ -3512,17 +3494,17 @@
       <c r="K29" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L29" s="1">
-        <v>13</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0</v>
+      <c r="L29" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O29" s="1">
-        <v>0</v>
+      <c r="O29" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>92</v>
@@ -3565,17 +3547,17 @@
       <c r="K30" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L30" s="1">
-        <v>14</v>
-      </c>
-      <c r="M30" s="1">
-        <v>30</v>
+      <c r="L30" s="1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O30" s="1">
-        <v>0</v>
+      <c r="O30" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>92</v>
@@ -3618,17 +3600,17 @@
       <c r="K31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="1">
-        <v>9</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0</v>
+      <c r="L31" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>92</v>
@@ -3671,17 +3653,17 @@
       <c r="K32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="1">
-        <v>17</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
+      <c r="L32" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O32" s="1">
-        <v>0</v>
+      <c r="O32" s="1" t="n">
+        <v>20.0</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>92</v>
@@ -3724,17 +3706,17 @@
       <c r="K33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="1">
-        <v>9</v>
-      </c>
-      <c r="M33" s="1">
-        <v>30</v>
+      <c r="L33" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O33" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>15.0</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>92</v>
@@ -3777,17 +3759,17 @@
       <c r="K34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="1">
-        <v>10</v>
-      </c>
-      <c r="M34" s="1">
-        <v>30</v>
+      <c r="L34" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O34" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>45.0</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>92</v>
@@ -3830,17 +3812,17 @@
       <c r="K35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="1">
-        <v>12</v>
-      </c>
-      <c r="M35" s="1">
-        <v>0</v>
+      <c r="L35" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O35" s="1">
-        <v>0</v>
+      <c r="O35" s="1" t="n">
+        <v>15.0</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>92</v>
@@ -3883,17 +3865,17 @@
       <c r="K36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="1">
-        <v>9</v>
-      </c>
-      <c r="M36" s="1">
-        <v>30</v>
+      <c r="L36" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O36" s="1">
-        <v>0</v>
+      <c r="O36" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>92</v>
@@ -3936,17 +3918,17 @@
       <c r="K37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="1">
-        <v>10</v>
-      </c>
-      <c r="M37" s="1">
-        <v>0</v>
+      <c r="L37" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O37" s="1">
-        <v>0</v>
+      <c r="O37" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>92</v>
@@ -3989,17 +3971,17 @@
       <c r="K38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="1">
-        <v>16</v>
-      </c>
-      <c r="M38" s="1">
-        <v>0</v>
+      <c r="L38" s="1" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O38" s="1">
-        <v>0</v>
+      <c r="O38" s="1" t="n">
+        <v>50.0</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>92</v>
@@ -4042,17 +4024,17 @@
       <c r="K39" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="1">
-        <v>17</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
+      <c r="L39" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>20.0</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>92</v>
@@ -4095,17 +4077,17 @@
       <c r="K40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="1">
-        <v>13</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0</v>
+      <c r="L40" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O40" s="1">
-        <v>0</v>
+      <c r="O40" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>92</v>
@@ -4148,17 +4130,17 @@
       <c r="K41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="1">
-        <v>12</v>
-      </c>
-      <c r="M41" s="1">
-        <v>30</v>
+      <c r="L41" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M41" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>92</v>
@@ -4201,17 +4183,17 @@
       <c r="K42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="1">
-        <v>17</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0</v>
+      <c r="L42" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O42" s="1">
-        <v>0</v>
+      <c r="O42" s="1" t="n">
+        <v>50.0</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>92</v>
@@ -4254,17 +4236,17 @@
       <c r="K43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L43" s="1">
-        <v>17</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0</v>
+      <c r="L43" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O43" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O43" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>92</v>
@@ -4307,17 +4289,17 @@
       <c r="K44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L44" s="1">
-        <v>13</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
+      <c r="L44" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O44" s="1">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="O44" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>92</v>
@@ -4360,17 +4342,17 @@
       <c r="K45" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L45" s="1">
-        <v>16</v>
-      </c>
-      <c r="M45" s="1">
-        <v>30</v>
+      <c r="L45" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M45" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O45" s="1">
-        <v>0</v>
+      <c r="O45" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>92</v>
@@ -4413,17 +4395,17 @@
       <c r="K46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L46" s="1">
-        <v>9</v>
-      </c>
-      <c r="M46" s="1">
-        <v>30</v>
+      <c r="L46" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M46" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O46" s="1">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="O46" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>92</v>
@@ -4466,17 +4448,17 @@
       <c r="K47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L47" s="1">
-        <v>9</v>
-      </c>
-      <c r="M47" s="1">
-        <v>0</v>
+      <c r="L47" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M47" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O47" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O47" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>92</v>
@@ -4519,17 +4501,17 @@
       <c r="K48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L48" s="1">
-        <v>8</v>
-      </c>
-      <c r="M48" s="1">
-        <v>0</v>
+      <c r="L48" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M48" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="O48" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>92</v>
@@ -4572,17 +4554,17 @@
       <c r="K49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L49" s="1">
-        <v>10</v>
-      </c>
-      <c r="M49" s="1">
-        <v>0</v>
+      <c r="L49" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M49" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O49" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O49" s="1" t="n">
+        <v>15.0</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>92</v>
@@ -4625,17 +4607,17 @@
       <c r="K50" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L50" s="1">
-        <v>14</v>
-      </c>
-      <c r="M50" s="1">
-        <v>30</v>
+      <c r="L50" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M50" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O50" s="1">
-        <v>0</v>
+      <c r="O50" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>92</v>
@@ -4678,17 +4660,17 @@
       <c r="K51" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L51" s="1">
-        <v>10</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0</v>
+      <c r="L51" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M51" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O51" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>92</v>
@@ -4731,17 +4713,17 @@
       <c r="K52" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L52" s="1">
-        <v>13</v>
-      </c>
-      <c r="M52" s="1">
-        <v>0</v>
+      <c r="L52" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M52" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O52" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O52" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>92</v>
@@ -4784,17 +4766,17 @@
       <c r="K53" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L53" s="1">
-        <v>15</v>
-      </c>
-      <c r="M53" s="1">
-        <v>0</v>
+      <c r="L53" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M53" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O53" s="1">
-        <v>0</v>
+      <c r="O53" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>92</v>
@@ -4837,17 +4819,17 @@
       <c r="K54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L54" s="1">
-        <v>10</v>
-      </c>
-      <c r="M54" s="1">
-        <v>0</v>
+      <c r="L54" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M54" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O54" s="1">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="O54" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>92</v>
@@ -4890,17 +4872,17 @@
       <c r="K55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L55" s="1">
-        <v>13</v>
-      </c>
-      <c r="M55" s="1">
-        <v>0</v>
+      <c r="L55" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M55" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O55" s="1">
-        <v>0</v>
+      <c r="O55" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>92</v>
@@ -4943,17 +4925,17 @@
       <c r="K56" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L56" s="1">
-        <v>13</v>
-      </c>
-      <c r="M56" s="1">
-        <v>0</v>
+      <c r="L56" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M56" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="O56" s="1">
-        <v>0</v>
+      <c r="O56" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>92</v>
@@ -4996,17 +4978,17 @@
       <c r="K57" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L57" s="1">
-        <v>14</v>
-      </c>
-      <c r="M57" s="1">
-        <v>30</v>
+      <c r="L57" s="1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M57" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O57" s="1">
-        <v>0</v>
+      <c r="O57" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>92</v>
@@ -5049,17 +5031,17 @@
       <c r="K58" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L58" s="1">
-        <v>14</v>
-      </c>
-      <c r="M58" s="1">
-        <v>30</v>
+      <c r="L58" s="1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M58" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O58" s="1">
-        <v>0</v>
+      <c r="O58" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>92</v>
@@ -5102,17 +5084,17 @@
       <c r="K59" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L59" s="1">
-        <v>8</v>
-      </c>
-      <c r="M59" s="1">
-        <v>0</v>
+      <c r="L59" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M59" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O59" s="1">
-        <v>45</v>
+        <v>159</v>
+      </c>
+      <c r="O59" s="1" t="n">
+        <v>15.0</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>92</v>
@@ -5155,17 +5137,17 @@
       <c r="K60" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L60" s="1">
-        <v>8</v>
-      </c>
-      <c r="M60" s="1">
-        <v>0</v>
+      <c r="L60" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M60" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O60" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O60" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>92</v>
@@ -5208,17 +5190,17 @@
       <c r="K61" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L61" s="1">
-        <v>13</v>
-      </c>
-      <c r="M61" s="1">
-        <v>0</v>
+      <c r="L61" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M61" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O61" s="1">
-        <v>0</v>
+      <c r="O61" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>92</v>
@@ -5261,17 +5243,17 @@
       <c r="K62" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L62" s="1">
-        <v>14</v>
-      </c>
-      <c r="M62" s="1">
-        <v>30</v>
+      <c r="L62" s="1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M62" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="O62" s="1">
-        <v>0</v>
+      <c r="O62" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>92</v>
@@ -5314,17 +5296,17 @@
       <c r="K63" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L63" s="1">
-        <v>9</v>
-      </c>
-      <c r="M63" s="1">
-        <v>30</v>
+      <c r="L63" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M63" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O63" s="1">
-        <v>0</v>
+      <c r="O63" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>92</v>
@@ -5367,17 +5349,17 @@
       <c r="K64" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L64" s="1">
-        <v>16</v>
-      </c>
-      <c r="M64" s="1">
-        <v>0</v>
+      <c r="L64" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M64" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O64" s="1">
-        <v>0</v>
+      <c r="O64" s="1" t="n">
+        <v>20.0</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>92</v>
@@ -5420,17 +5402,17 @@
       <c r="K65" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L65" s="1">
-        <v>13</v>
-      </c>
-      <c r="M65" s="1">
-        <v>0</v>
+      <c r="L65" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O65" s="1">
-        <v>0</v>
+      <c r="O65" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>92</v>
@@ -5473,17 +5455,17 @@
       <c r="K66" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L66" s="1">
-        <v>15</v>
-      </c>
-      <c r="M66" s="1">
-        <v>0</v>
+      <c r="L66" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M66" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O66" s="1">
-        <v>0</v>
+      <c r="O66" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>92</v>
@@ -5526,17 +5508,17 @@
       <c r="K67" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L67" s="1">
-        <v>15</v>
-      </c>
-      <c r="M67" s="1">
-        <v>0</v>
+      <c r="L67" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M67" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O67" s="1">
-        <v>0</v>
+      <c r="O67" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>92</v>
@@ -5579,17 +5561,17 @@
       <c r="K68" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L68" s="1">
-        <v>13</v>
-      </c>
-      <c r="M68" s="1">
-        <v>0</v>
+      <c r="L68" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M68" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O68" s="1">
-        <v>0</v>
+      <c r="O68" s="1" t="n">
+        <v>15.0</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>92</v>
@@ -5632,17 +5614,17 @@
       <c r="K69" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L69" s="1">
-        <v>15</v>
-      </c>
-      <c r="M69" s="1">
-        <v>0</v>
+      <c r="L69" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M69" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O69" s="1">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="O69" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>92</v>
@@ -5685,17 +5667,17 @@
       <c r="K70" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L70" s="1">
-        <v>8</v>
-      </c>
-      <c r="M70" s="1">
-        <v>0</v>
+      <c r="L70" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M70" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O70" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>92</v>
@@ -5738,17 +5720,17 @@
       <c r="K71" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L71" s="1">
-        <v>13</v>
-      </c>
-      <c r="M71" s="1">
-        <v>0</v>
+      <c r="L71" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M71" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O71" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O71" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>92</v>
@@ -5791,17 +5773,17 @@
       <c r="K72" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L72" s="1">
-        <v>13</v>
-      </c>
-      <c r="M72" s="1">
-        <v>0</v>
+      <c r="L72" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M72" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O72" s="1">
-        <v>0</v>
+      <c r="O72" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>92</v>
@@ -5844,17 +5826,17 @@
       <c r="K73" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L73" s="1">
-        <v>13</v>
-      </c>
-      <c r="M73" s="1">
-        <v>0</v>
+      <c r="L73" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M73" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O73" s="1">
-        <v>0</v>
+      <c r="O73" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>92</v>
@@ -5897,17 +5879,17 @@
       <c r="K74" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L74" s="1">
-        <v>15</v>
-      </c>
-      <c r="M74" s="1">
-        <v>0</v>
+      <c r="L74" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M74" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O74" s="1">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="O74" s="1" t="n">
+        <v>80.0</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>92</v>
@@ -5950,17 +5932,17 @@
       <c r="K75" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L75" s="1">
-        <v>9</v>
-      </c>
-      <c r="M75" s="1">
-        <v>30</v>
+      <c r="L75" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M75" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O75" s="1">
-        <v>75</v>
+        <v>161</v>
+      </c>
+      <c r="O75" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>92</v>
@@ -6003,17 +5985,17 @@
       <c r="K76" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L76" s="1">
-        <v>15</v>
-      </c>
-      <c r="M76" s="1">
-        <v>0</v>
+      <c r="L76" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M76" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O76" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O76" s="1" t="n">
+        <v>80.0</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>92</v>
@@ -6056,17 +6038,17 @@
       <c r="K77" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L77" s="1">
-        <v>8</v>
-      </c>
-      <c r="M77" s="1">
-        <v>0</v>
+      <c r="L77" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M77" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>159</v>
       </c>
       <c r="O77" s="1">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>92</v>
@@ -6109,17 +6091,17 @@
       <c r="K78" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L78" s="1">
-        <v>8</v>
-      </c>
-      <c r="M78" s="1">
-        <v>0</v>
+      <c r="L78" s="1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M78" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O78" s="1">
-        <v>75</v>
+      <c r="O78" s="1" t="n">
+        <v>15.0</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>92</v>
@@ -6162,17 +6144,17 @@
       <c r="K79" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L79" s="1">
-        <v>9</v>
-      </c>
-      <c r="M79" s="1">
-        <v>30</v>
+      <c r="L79" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M79" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O79" s="1">
-        <v>75</v>
+      <c r="O79" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>92</v>
@@ -6215,17 +6197,17 @@
       <c r="K80" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L80" s="1">
-        <v>10</v>
-      </c>
-      <c r="M80" s="1">
-        <v>0</v>
+      <c r="L80" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M80" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O80" s="1">
-        <v>75</v>
+        <v>160</v>
+      </c>
+      <c r="O80" s="1" t="n">
+        <v>15.0</v>
       </c>
       <c r="P80" s="1" t="s">
         <v>92</v>
@@ -6268,17 +6250,17 @@
       <c r="K81" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L81" s="1">
-        <v>13</v>
-      </c>
-      <c r="M81" s="1">
-        <v>0</v>
+      <c r="L81" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M81" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O81" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O81" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P81" s="1" t="s">
         <v>92</v>
@@ -6321,17 +6303,17 @@
       <c r="K82" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L82" s="1">
-        <v>13</v>
-      </c>
-      <c r="M82" s="1">
-        <v>0</v>
+      <c r="L82" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M82" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O82" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O82" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>92</v>
@@ -6374,17 +6356,17 @@
       <c r="K83" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L83" s="1">
-        <v>8</v>
-      </c>
-      <c r="M83" s="1">
-        <v>0</v>
+      <c r="L83" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M83" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O83" s="1">
-        <v>15</v>
+      <c r="O83" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>92</v>
@@ -6427,17 +6409,17 @@
       <c r="K84" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L84" s="1">
-        <v>9</v>
-      </c>
-      <c r="M84" s="1">
-        <v>0</v>
+      <c r="L84" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M84" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O84" s="1">
-        <v>75</v>
+      <c r="O84" s="1" t="n">
+        <v>45.0</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>92</v>
@@ -6480,17 +6462,17 @@
       <c r="K85" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L85" s="1">
-        <v>9</v>
-      </c>
-      <c r="M85" s="1">
-        <v>30</v>
+      <c r="L85" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M85" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O85" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O85" s="1" t="n">
+        <v>15.0</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>92</v>
@@ -6533,17 +6515,17 @@
       <c r="K86" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L86" s="1">
-        <v>8</v>
-      </c>
-      <c r="M86" s="1">
-        <v>0</v>
+      <c r="L86" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M86" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="O86" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P86" s="1" t="s">
         <v>92</v>
@@ -6586,17 +6568,17 @@
       <c r="K87" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L87" s="1">
-        <v>8</v>
-      </c>
-      <c r="M87" s="1">
-        <v>0</v>
+      <c r="L87" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M87" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O87" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>92</v>
@@ -6639,17 +6621,17 @@
       <c r="K88" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L88" s="1">
-        <v>11</v>
-      </c>
-      <c r="M88" s="1">
-        <v>0</v>
+      <c r="L88" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M88" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O88" s="1">
-        <v>0</v>
+      <c r="O88" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P88" s="1" t="s">
         <v>92</v>
@@ -6692,17 +6674,17 @@
       <c r="K89" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L89" s="1">
-        <v>13</v>
-      </c>
-      <c r="M89" s="1">
-        <v>0</v>
+      <c r="L89" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M89" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O89" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O89" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P89" s="1" t="s">
         <v>92</v>
@@ -6745,17 +6727,17 @@
       <c r="K90" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L90" s="1">
-        <v>15</v>
-      </c>
-      <c r="M90" s="1">
-        <v>0</v>
+      <c r="L90" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M90" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O90" s="1">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="O90" s="1" t="n">
+        <v>80.0</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>92</v>
@@ -6798,17 +6780,17 @@
       <c r="K91" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L91" s="1">
-        <v>13</v>
-      </c>
-      <c r="M91" s="1">
-        <v>0</v>
+      <c r="L91" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M91" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O91" s="1">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="O91" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P91" s="1" t="s">
         <v>92</v>
@@ -6851,17 +6833,17 @@
       <c r="K92" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L92" s="1">
-        <v>13</v>
-      </c>
-      <c r="M92" s="1">
-        <v>0</v>
+      <c r="L92" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M92" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O92" s="1">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="O92" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P92" s="1" t="s">
         <v>92</v>
@@ -6904,17 +6886,17 @@
       <c r="K93" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L93" s="1">
-        <v>8</v>
-      </c>
-      <c r="M93" s="1">
-        <v>0</v>
+      <c r="L93" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M93" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>160</v>
       </c>
       <c r="O93" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>92</v>
@@ -6957,17 +6939,17 @@
       <c r="K94" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L94" s="1">
-        <v>9</v>
-      </c>
-      <c r="M94" s="1">
-        <v>0</v>
+      <c r="L94" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M94" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O94" s="1">
-        <v>30</v>
+        <v>162</v>
+      </c>
+      <c r="O94" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>92</v>
@@ -7010,17 +6992,17 @@
       <c r="K95" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L95" s="1">
-        <v>8</v>
-      </c>
-      <c r="M95" s="1">
-        <v>0</v>
+      <c r="L95" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M95" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O95" s="1">
-        <v>30</v>
+        <v>160</v>
+      </c>
+      <c r="O95" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>92</v>
@@ -7063,17 +7045,17 @@
       <c r="K96" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L96" s="1">
-        <v>9</v>
-      </c>
-      <c r="M96" s="1">
-        <v>0</v>
+      <c r="L96" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M96" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O96" s="1">
-        <v>45</v>
+        <v>161</v>
+      </c>
+      <c r="O96" s="1" t="n">
+        <v>45.0</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>92</v>
@@ -7116,17 +7098,17 @@
       <c r="K97" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L97" s="1">
-        <v>16</v>
-      </c>
-      <c r="M97" s="1">
-        <v>0</v>
+      <c r="L97" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M97" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O97" s="1">
-        <v>0</v>
+      <c r="O97" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P97" s="1" t="s">
         <v>92</v>
@@ -7169,17 +7151,17 @@
       <c r="K98" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L98" s="1">
-        <v>15</v>
-      </c>
-      <c r="M98" s="1">
-        <v>0</v>
+      <c r="L98" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M98" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O98" s="1">
-        <v>0</v>
+      <c r="O98" s="1" t="n">
+        <v>80.0</v>
       </c>
       <c r="P98" s="1" t="s">
         <v>92</v>
@@ -7222,17 +7204,17 @@
       <c r="K99" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L99" s="1">
-        <v>13</v>
-      </c>
-      <c r="M99" s="1">
-        <v>0</v>
+      <c r="L99" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M99" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O99" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O99" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P99" s="1" t="s">
         <v>92</v>
@@ -7275,17 +7257,17 @@
       <c r="K100" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L100" s="1">
-        <v>10</v>
-      </c>
-      <c r="M100" s="1">
-        <v>30</v>
+      <c r="L100" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M100" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O100" s="1">
-        <v>15</v>
+        <v>162</v>
+      </c>
+      <c r="O100" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P100" s="1" t="s">
         <v>92</v>
@@ -7328,17 +7310,17 @@
       <c r="K101" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L101" s="1">
-        <v>14</v>
-      </c>
-      <c r="M101" s="1">
-        <v>30</v>
+      <c r="L101" s="1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M101" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O101" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O101" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P101" s="1" t="s">
         <v>92</v>
@@ -7381,17 +7363,17 @@
       <c r="K102" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L102" s="1">
-        <v>8</v>
-      </c>
-      <c r="M102" s="1">
-        <v>0</v>
+      <c r="L102" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M102" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O102" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P102" s="1" t="s">
         <v>92</v>
@@ -7434,17 +7416,17 @@
       <c r="K103" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L103" s="1">
-        <v>8</v>
-      </c>
-      <c r="M103" s="1">
-        <v>0</v>
+      <c r="L103" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M103" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O103" s="1">
-        <v>30</v>
+        <v>158</v>
+      </c>
+      <c r="O103" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P103" s="1" t="s">
         <v>92</v>
@@ -7487,11 +7469,11 @@
       <c r="K104" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L104" s="1">
-        <v>10</v>
-      </c>
-      <c r="M104" s="1">
-        <v>30</v>
+      <c r="L104" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M104" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>161</v>
@@ -7540,17 +7522,17 @@
       <c r="K105" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L105" s="1">
-        <v>9</v>
-      </c>
-      <c r="M105" s="1">
-        <v>30</v>
+      <c r="L105" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M105" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O105" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P105" s="1" t="s">
         <v>92</v>
@@ -7593,17 +7575,17 @@
       <c r="K106" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L106" s="1">
-        <v>13</v>
-      </c>
-      <c r="M106" s="1">
-        <v>0</v>
+      <c r="L106" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M106" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O106" s="1">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="O106" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P106" s="1" t="s">
         <v>92</v>
@@ -7646,17 +7628,17 @@
       <c r="K107" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L107" s="1">
-        <v>8</v>
-      </c>
-      <c r="M107" s="1">
-        <v>0</v>
+      <c r="L107" s="1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M107" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O107" s="1">
-        <v>0</v>
+      <c r="O107" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P107" s="1" t="s">
         <v>92</v>
@@ -7699,17 +7681,17 @@
       <c r="K108" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L108" s="1">
-        <v>16</v>
-      </c>
-      <c r="M108" s="1">
-        <v>0</v>
+      <c r="L108" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M108" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N108" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O108" s="1">
-        <v>0</v>
+      <c r="O108" s="1" t="n">
+        <v>80.0</v>
       </c>
       <c r="P108" s="1" t="s">
         <v>92</v>
@@ -7752,17 +7734,17 @@
       <c r="K109" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L109" s="1">
-        <v>9</v>
-      </c>
-      <c r="M109" s="1">
-        <v>30</v>
+      <c r="L109" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M109" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N109" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O109" s="1">
-        <v>45</v>
+      <c r="O109" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P109" s="1" t="s">
         <v>92</v>
@@ -7805,17 +7787,17 @@
       <c r="K110" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L110" s="1">
-        <v>15</v>
-      </c>
-      <c r="M110" s="1">
-        <v>0</v>
+      <c r="L110" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M110" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O110" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O110" s="1" t="n">
+        <v>80.0</v>
       </c>
       <c r="P110" s="1" t="s">
         <v>92</v>
@@ -7858,17 +7840,17 @@
       <c r="K111" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L111" s="1">
-        <v>10</v>
-      </c>
-      <c r="M111" s="1">
-        <v>0</v>
+      <c r="L111" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M111" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O111" s="1">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="O111" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P111" s="1" t="s">
         <v>92</v>
@@ -7911,17 +7893,17 @@
       <c r="K112" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L112" s="1">
-        <v>8</v>
-      </c>
-      <c r="M112" s="1">
-        <v>0</v>
+      <c r="L112" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M112" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O112" s="1">
-        <v>30</v>
+        <v>159</v>
+      </c>
+      <c r="O112" s="1" t="n">
+        <v>15.0</v>
       </c>
       <c r="P112" s="1" t="s">
         <v>92</v>
@@ -7964,17 +7946,17 @@
       <c r="K113" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L113" s="1">
-        <v>13</v>
-      </c>
-      <c r="M113" s="1">
-        <v>0</v>
+      <c r="L113" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M113" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O113" s="1">
-        <v>0</v>
+      <c r="O113" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P113" s="1" t="s">
         <v>92</v>
@@ -8017,17 +7999,17 @@
       <c r="K114" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L114" s="1">
-        <v>8</v>
-      </c>
-      <c r="M114" s="1">
-        <v>0</v>
+      <c r="L114" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M114" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O114" s="1">
-        <v>30</v>
+      <c r="O114" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P114" s="1" t="s">
         <v>92</v>
@@ -8070,17 +8052,17 @@
       <c r="K115" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L115" s="1">
-        <v>16</v>
-      </c>
-      <c r="M115" s="1">
-        <v>0</v>
+      <c r="L115" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M115" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O115" s="1">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="O115" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P115" s="1" t="s">
         <v>92</v>
@@ -8123,17 +8105,17 @@
       <c r="K116" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L116" s="1">
-        <v>13</v>
-      </c>
-      <c r="M116" s="1">
-        <v>0</v>
+      <c r="L116" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M116" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O116" s="1">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="O116" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P116" s="1" t="s">
         <v>92</v>
@@ -8176,17 +8158,17 @@
       <c r="K117" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L117" s="1">
-        <v>8</v>
-      </c>
-      <c r="M117" s="1">
-        <v>0</v>
+      <c r="L117" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M117" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O117" s="1">
-        <v>30</v>
+        <v>160</v>
+      </c>
+      <c r="O117" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P117" s="1" t="s">
         <v>92</v>
@@ -8229,17 +8211,17 @@
       <c r="K118" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L118" s="1">
-        <v>13</v>
-      </c>
-      <c r="M118" s="1">
-        <v>0</v>
+      <c r="L118" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M118" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N118" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O118" s="1">
-        <v>0</v>
+      <c r="O118" s="1" t="n">
+        <v>120.0</v>
       </c>
       <c r="P118" s="1" t="s">
         <v>92</v>
@@ -8282,17 +8264,17 @@
       <c r="K119" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L119" s="1">
-        <v>13</v>
-      </c>
-      <c r="M119" s="1">
-        <v>0</v>
+      <c r="L119" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M119" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N119" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O119" s="1">
-        <v>0</v>
+      <c r="O119" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P119" s="1" t="s">
         <v>92</v>
@@ -8335,17 +8317,17 @@
       <c r="K120" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L120" s="1">
-        <v>16</v>
-      </c>
-      <c r="M120" s="1">
-        <v>0</v>
+      <c r="L120" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M120" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O120" s="1">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="O120" s="1" t="n">
+        <v>50.0</v>
       </c>
       <c r="P120" s="1" t="s">
         <v>92</v>
@@ -8388,17 +8370,17 @@
       <c r="K121" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L121" s="1">
-        <v>9</v>
-      </c>
-      <c r="M121" s="1">
-        <v>30</v>
+      <c r="L121" s="1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M121" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O121" s="1">
-        <v>45</v>
+        <v>163</v>
+      </c>
+      <c r="O121" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P121" s="1" t="s">
         <v>92</v>
@@ -8441,17 +8423,17 @@
       <c r="K122" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L122" s="1">
-        <v>13</v>
-      </c>
-      <c r="M122" s="1">
-        <v>0</v>
+      <c r="L122" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M122" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N122" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O122" s="1">
-        <v>0</v>
+      <c r="O122" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P122" s="1" t="s">
         <v>92</v>
@@ -8503,8 +8485,8 @@
       <c r="N123" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O123" s="1">
-        <v>0</v>
+      <c r="O123" s="1" t="n">
+        <v>60.0</v>
       </c>
       <c r="P123" s="1" t="s">
         <v>92</v>
@@ -8547,17 +8529,17 @@
       <c r="K124" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L124" s="1">
-        <v>13</v>
-      </c>
-      <c r="M124" s="1">
-        <v>0</v>
+      <c r="L124" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M124" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O124" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O124" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P124" s="1" t="s">
         <v>92</v>
@@ -8600,17 +8582,17 @@
       <c r="K125" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L125" s="1">
-        <v>16</v>
-      </c>
-      <c r="M125" s="1">
-        <v>0</v>
+      <c r="L125" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M125" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O125" s="1">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="O125" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P125" s="1" t="s">
         <v>92</v>
@@ -8653,17 +8635,17 @@
       <c r="K126" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L126" s="1">
-        <v>17</v>
-      </c>
-      <c r="M126" s="1">
-        <v>30</v>
+      <c r="L126" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M126" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N126" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O126" s="1">
-        <v>0</v>
+      <c r="O126" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P126" s="1" t="s">
         <v>92</v>
@@ -8706,17 +8688,17 @@
       <c r="K127" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L127" s="1">
-        <v>12</v>
-      </c>
-      <c r="M127" s="1">
-        <v>0</v>
+      <c r="L127" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M127" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O127" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O127" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P127" s="1" t="s">
         <v>92</v>
@@ -8759,17 +8741,17 @@
       <c r="K128" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L128" s="1">
-        <v>8</v>
-      </c>
-      <c r="M128" s="1">
-        <v>0</v>
+      <c r="L128" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M128" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O128" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P128" s="1" t="s">
         <v>92</v>
@@ -8812,17 +8794,17 @@
       <c r="K129" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L129" s="1">
-        <v>17</v>
-      </c>
-      <c r="M129" s="1">
-        <v>30</v>
+      <c r="L129" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M129" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O129" s="1">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="O129" s="1" t="n">
+        <v>120.0</v>
       </c>
       <c r="P129" s="1" t="s">
         <v>92</v>
@@ -8865,11 +8847,11 @@
       <c r="K130" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L130" s="1">
-        <v>10</v>
-      </c>
-      <c r="M130" s="1">
-        <v>30</v>
+      <c r="L130" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M130" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N130" s="1" t="s">
         <v>159</v>
@@ -8918,17 +8900,17 @@
       <c r="K131" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L131" s="1">
-        <v>11</v>
-      </c>
-      <c r="M131" s="1">
-        <v>0</v>
+      <c r="L131" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M131" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O131" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O131" s="1" t="n">
+        <v>15.0</v>
       </c>
       <c r="P131" s="1" t="s">
         <v>92</v>
@@ -8971,17 +8953,17 @@
       <c r="K132" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L132" s="1">
-        <v>9</v>
-      </c>
-      <c r="M132" s="1">
-        <v>30</v>
+      <c r="L132" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M132" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O132" s="1">
-        <v>30</v>
+        <v>161</v>
+      </c>
+      <c r="O132" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P132" s="1" t="s">
         <v>92</v>
@@ -9024,17 +9006,17 @@
       <c r="K133" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L133" s="1">
-        <v>8</v>
-      </c>
-      <c r="M133" s="1">
-        <v>0</v>
+      <c r="L133" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M133" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O133" s="1">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="O133" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P133" s="1" t="s">
         <v>92</v>
@@ -9086,8 +9068,8 @@
       <c r="N134" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O134" s="1">
-        <v>0</v>
+      <c r="O134" s="1" t="n">
+        <v>90.0</v>
       </c>
       <c r="P134" s="1" t="s">
         <v>92</v>
@@ -9130,17 +9112,17 @@
       <c r="K135" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L135" s="1">
-        <v>14</v>
-      </c>
-      <c r="M135" s="1">
-        <v>0</v>
+      <c r="L135" s="1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M135" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N135" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O135" s="1">
-        <v>0</v>
+      <c r="O135" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P135" s="1" t="s">
         <v>92</v>
@@ -9183,17 +9165,17 @@
       <c r="K136" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L136" s="1">
-        <v>8</v>
-      </c>
-      <c r="M136" s="1">
-        <v>0</v>
+      <c r="L136" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M136" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N136" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O136" s="1">
-        <v>0</v>
+      <c r="O136" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P136" s="1" t="s">
         <v>92</v>
@@ -9236,17 +9218,17 @@
       <c r="K137" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L137" s="1">
-        <v>8</v>
-      </c>
-      <c r="M137" s="1">
-        <v>0</v>
+      <c r="L137" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M137" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O137" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O137" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P137" s="1" t="s">
         <v>92</v>
@@ -9289,17 +9271,17 @@
       <c r="K138" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L138" s="1">
-        <v>8</v>
-      </c>
-      <c r="M138" s="1">
-        <v>0</v>
+      <c r="L138" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M138" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O138" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O138" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P138" s="1" t="s">
         <v>92</v>
@@ -9342,17 +9324,17 @@
       <c r="K139" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L139" s="1">
-        <v>8</v>
-      </c>
-      <c r="M139" s="1">
-        <v>0</v>
+      <c r="L139" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M139" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N139" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O139" s="1">
-        <v>0</v>
+      <c r="O139" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P139" s="1" t="s">
         <v>92</v>
@@ -9395,17 +9377,17 @@
       <c r="K140" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L140" s="1">
-        <v>8</v>
-      </c>
-      <c r="M140" s="1">
-        <v>0</v>
+      <c r="L140" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M140" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N140" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O140" s="1">
-        <v>0</v>
+      <c r="O140" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P140" s="1" t="s">
         <v>92</v>
@@ -9448,17 +9430,17 @@
       <c r="K141" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L141" s="1">
-        <v>13</v>
-      </c>
-      <c r="M141" s="1">
-        <v>0</v>
+      <c r="L141" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M141" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O141" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P141" s="1" t="s">
         <v>92</v>
@@ -9501,17 +9483,17 @@
       <c r="K142" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L142" s="1">
-        <v>13</v>
-      </c>
-      <c r="M142" s="1">
-        <v>0</v>
+      <c r="L142" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M142" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O142" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P142" s="1" t="s">
         <v>92</v>
@@ -9554,17 +9536,17 @@
       <c r="K143" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L143" s="1">
-        <v>13</v>
-      </c>
-      <c r="M143" s="1">
-        <v>0</v>
+      <c r="L143" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M143" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N143" s="1" t="s">
         <v>160</v>
       </c>
       <c r="O143" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P143" s="1" t="s">
         <v>92</v>
@@ -9607,17 +9589,17 @@
       <c r="K144" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L144" s="1">
-        <v>13</v>
-      </c>
-      <c r="M144" s="1">
-        <v>0</v>
+      <c r="L144" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M144" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N144" s="1" t="s">
         <v>161</v>
       </c>
       <c r="O144" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P144" s="1" t="s">
         <v>92</v>
@@ -9660,17 +9642,17 @@
       <c r="K145" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L145" s="1">
-        <v>8</v>
-      </c>
-      <c r="M145" s="1">
-        <v>0</v>
+      <c r="L145" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M145" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O145" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O145" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P145" s="1" t="s">
         <v>92</v>
@@ -9713,17 +9695,17 @@
       <c r="K146" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L146" s="1">
-        <v>8</v>
-      </c>
-      <c r="M146" s="1">
-        <v>0</v>
+      <c r="L146" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M146" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O146" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O146" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P146" s="1" t="s">
         <v>92</v>
@@ -9766,17 +9748,17 @@
       <c r="K147" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L147" s="1">
-        <v>8</v>
-      </c>
-      <c r="M147" s="1">
-        <v>0</v>
+      <c r="L147" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M147" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N147" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O147" s="1">
-        <v>0</v>
+      <c r="O147" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P147" s="1" t="s">
         <v>92</v>
@@ -9819,17 +9801,17 @@
       <c r="K148" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L148" s="1">
-        <v>15</v>
-      </c>
-      <c r="M148" s="1">
-        <v>0</v>
+      <c r="L148" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M148" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N148" s="1" t="s">
         <v>163</v>
       </c>
       <c r="O148" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P148" s="1" t="s">
         <v>92</v>
@@ -9872,17 +9854,17 @@
       <c r="K149" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L149" s="1">
-        <v>13</v>
-      </c>
-      <c r="M149" s="1">
-        <v>0</v>
+      <c r="L149" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M149" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>158</v>
       </c>
       <c r="O149" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P149" s="1" t="s">
         <v>92</v>
@@ -9925,17 +9907,17 @@
       <c r="K150" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L150" s="1">
-        <v>10</v>
-      </c>
-      <c r="M150" s="1">
-        <v>0</v>
+      <c r="L150" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M150" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O150" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O150" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P150" s="1" t="s">
         <v>92</v>
@@ -9978,17 +9960,17 @@
       <c r="K151" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L151" s="1">
-        <v>8</v>
-      </c>
-      <c r="M151" s="1">
-        <v>0</v>
+      <c r="L151" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M151" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N151" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O151" s="1">
-        <v>0</v>
+      <c r="O151" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P151" s="1" t="s">
         <v>92</v>
@@ -10031,17 +10013,17 @@
       <c r="K152" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L152" s="1">
-        <v>16</v>
-      </c>
-      <c r="M152" s="1">
-        <v>0</v>
+      <c r="L152" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M152" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O152" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P152" s="1" t="s">
         <v>92</v>
@@ -10084,17 +10066,17 @@
       <c r="K153" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L153" s="1">
-        <v>13</v>
-      </c>
-      <c r="M153" s="1">
-        <v>0</v>
+      <c r="L153" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M153" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N153" s="1" t="s">
         <v>163</v>
       </c>
       <c r="O153" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P153" s="1" t="s">
         <v>92</v>
@@ -10137,17 +10119,17 @@
       <c r="K154" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L154" s="1">
-        <v>13</v>
-      </c>
-      <c r="M154" s="1">
-        <v>0</v>
+      <c r="L154" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M154" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O154" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P154" s="1" t="s">
         <v>92</v>
@@ -10190,17 +10172,17 @@
       <c r="K155" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L155" s="1">
-        <v>8</v>
-      </c>
-      <c r="M155" s="1">
-        <v>0</v>
+      <c r="L155" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M155" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N155" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O155" s="1">
-        <v>0</v>
+      <c r="O155" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P155" s="1" t="s">
         <v>92</v>
@@ -10243,17 +10225,17 @@
       <c r="K156" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L156" s="1">
-        <v>13</v>
-      </c>
-      <c r="M156" s="1">
-        <v>0</v>
+      <c r="L156" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M156" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N156" s="1" t="s">
         <v>159</v>
       </c>
       <c r="O156" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P156" s="1" t="s">
         <v>92</v>
@@ -10296,17 +10278,17 @@
       <c r="K157" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L157" s="1">
-        <v>8</v>
-      </c>
-      <c r="M157" s="1">
-        <v>0</v>
+      <c r="L157" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M157" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O157" s="1">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="O157" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P157" s="1" t="s">
         <v>92</v>
@@ -10349,17 +10331,17 @@
       <c r="K158" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L158" s="1">
-        <v>8</v>
-      </c>
-      <c r="M158" s="1">
-        <v>0</v>
+      <c r="L158" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M158" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O158" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O158" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P158" s="1" t="s">
         <v>92</v>
@@ -10402,17 +10384,17 @@
       <c r="K159" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L159" s="1">
-        <v>16</v>
-      </c>
-      <c r="M159" s="1">
-        <v>0</v>
+      <c r="L159" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M159" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N159" s="1" t="s">
         <v>159</v>
       </c>
       <c r="O159" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P159" s="1" t="s">
         <v>92</v>
@@ -10455,17 +10437,17 @@
       <c r="K160" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L160" s="1">
-        <v>13</v>
-      </c>
-      <c r="M160" s="1">
-        <v>0</v>
+      <c r="L160" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M160" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N160" s="1" t="s">
         <v>162</v>
       </c>
       <c r="O160" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P160" s="1" t="s">
         <v>92</v>
@@ -10508,17 +10490,17 @@
       <c r="K161" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L161" s="1">
-        <v>13</v>
-      </c>
-      <c r="M161" s="1">
-        <v>0</v>
+      <c r="L161" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M161" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N161" s="1" t="s">
         <v>160</v>
       </c>
       <c r="O161" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P161" s="1" t="s">
         <v>92</v>
@@ -10561,17 +10543,17 @@
       <c r="K162" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L162" s="1">
-        <v>8</v>
-      </c>
-      <c r="M162" s="1">
-        <v>0</v>
+      <c r="L162" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M162" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O162" s="1">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="O162" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P162" s="1" t="s">
         <v>92</v>
@@ -10614,17 +10596,17 @@
       <c r="K163" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L163" s="1">
-        <v>9</v>
-      </c>
-      <c r="M163" s="1">
-        <v>0</v>
+      <c r="L163" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M163" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N163" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O163" s="1">
-        <v>0</v>
+      <c r="O163" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P163" s="1" t="s">
         <v>92</v>
@@ -10667,17 +10649,17 @@
       <c r="K164" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L164" s="1">
-        <v>13</v>
-      </c>
-      <c r="M164" s="1">
-        <v>0</v>
+      <c r="L164" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M164" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N164" s="1" t="s">
         <v>163</v>
       </c>
       <c r="O164" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P164" s="1" t="s">
         <v>92</v>
@@ -10720,17 +10702,17 @@
       <c r="K165" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L165" s="1">
-        <v>14</v>
-      </c>
-      <c r="M165" s="1">
-        <v>30</v>
+      <c r="L165" s="1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M165" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N165" s="1" t="s">
         <v>162</v>
       </c>
       <c r="O165" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P165" s="1" t="s">
         <v>92</v>
@@ -10773,17 +10755,17 @@
       <c r="K166" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L166" s="1">
-        <v>9</v>
-      </c>
-      <c r="M166" s="1">
-        <v>0</v>
+      <c r="L166" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M166" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O166" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O166" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P166" s="1" t="s">
         <v>92</v>
@@ -10826,17 +10808,17 @@
       <c r="K167" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L167" s="1">
-        <v>16</v>
-      </c>
-      <c r="M167" s="1">
-        <v>0</v>
+      <c r="L167" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M167" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O167" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P167" s="1" t="s">
         <v>92</v>
@@ -10879,17 +10861,17 @@
       <c r="K168" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L168" s="1">
-        <v>9</v>
-      </c>
-      <c r="M168" s="1">
-        <v>30</v>
+      <c r="L168" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M168" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O168" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O168" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P168" s="1" t="s">
         <v>92</v>
@@ -10932,17 +10914,17 @@
       <c r="K169" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L169" s="1">
-        <v>8</v>
-      </c>
-      <c r="M169" s="1">
-        <v>0</v>
+      <c r="L169" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M169" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O169" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O169" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P169" s="1" t="s">
         <v>92</v>
@@ -10985,17 +10967,17 @@
       <c r="K170" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L170" s="1">
-        <v>9</v>
-      </c>
-      <c r="M170" s="1">
-        <v>30</v>
+      <c r="L170" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M170" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O170" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O170" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P170" s="1" t="s">
         <v>92</v>
@@ -11038,17 +11020,17 @@
       <c r="K171" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L171" s="1">
-        <v>9</v>
-      </c>
-      <c r="M171" s="1">
-        <v>30</v>
+      <c r="L171" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M171" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N171" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O171" s="1">
-        <v>0</v>
+      <c r="O171" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P171" s="1" t="s">
         <v>92</v>
@@ -11091,17 +11073,17 @@
       <c r="K172" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L172" s="1">
-        <v>10</v>
-      </c>
-      <c r="M172" s="1">
-        <v>0</v>
+      <c r="L172" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M172" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N172" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O172" s="1">
-        <v>0</v>
+      <c r="O172" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P172" s="1" t="s">
         <v>92</v>
@@ -11144,14 +11126,14 @@
       <c r="K173" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L173" s="1">
-        <v>17</v>
-      </c>
-      <c r="M173" s="1">
-        <v>0</v>
+      <c r="L173" s="1" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="M173" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O173" s="1">
         <v>0</v>
@@ -11197,17 +11179,17 @@
       <c r="K174" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L174" s="1">
-        <v>16</v>
-      </c>
-      <c r="M174" s="1">
-        <v>0</v>
+      <c r="L174" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M174" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N174" s="1" t="s">
         <v>163</v>
       </c>
       <c r="O174" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P174" s="1" t="s">
         <v>92</v>
@@ -11250,17 +11232,17 @@
       <c r="K175" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L175" s="1">
-        <v>13</v>
-      </c>
-      <c r="M175" s="1">
-        <v>0</v>
+      <c r="L175" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M175" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N175" s="1" t="s">
         <v>162</v>
       </c>
       <c r="O175" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P175" s="1" t="s">
         <v>92</v>
@@ -11303,17 +11285,17 @@
       <c r="K176" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L176" s="1">
-        <v>10</v>
-      </c>
-      <c r="M176" s="1">
-        <v>30</v>
+      <c r="L176" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M176" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O176" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O176" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P176" s="1" t="s">
         <v>92</v>
@@ -11356,14 +11338,14 @@
       <c r="K177" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L177" s="1">
-        <v>15</v>
-      </c>
-      <c r="M177" s="1">
-        <v>0</v>
+      <c r="L177" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M177" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O177" s="1">
         <v>0</v>
@@ -11409,11 +11391,11 @@
       <c r="K178" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L178" s="1">
-        <v>13</v>
-      </c>
-      <c r="M178" s="1">
-        <v>0</v>
+      <c r="L178" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M178" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N178" s="1" t="s">
         <v>163</v>
@@ -11462,17 +11444,17 @@
       <c r="K179" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L179" s="1">
-        <v>13</v>
-      </c>
-      <c r="M179" s="1">
-        <v>0</v>
+      <c r="L179" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M179" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N179" s="1" t="s">
         <v>160</v>
       </c>
       <c r="O179" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P179" s="1" t="s">
         <v>92</v>
@@ -11515,17 +11497,17 @@
       <c r="K180" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L180" s="1">
-        <v>16</v>
-      </c>
-      <c r="M180" s="1">
-        <v>30</v>
+      <c r="L180" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M180" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O180" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P180" s="1" t="s">
         <v>92</v>
@@ -11568,17 +11550,17 @@
       <c r="K181" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L181" s="1">
-        <v>9</v>
-      </c>
-      <c r="M181" s="1">
-        <v>30</v>
+      <c r="L181" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M181" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O181" s="1">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="O181" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P181" s="1" t="s">
         <v>92</v>
@@ -11621,17 +11603,17 @@
       <c r="K182" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L182" s="1">
-        <v>8</v>
-      </c>
-      <c r="M182" s="1">
-        <v>0</v>
+      <c r="L182" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M182" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O182" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O182" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P182" s="1" t="s">
         <v>92</v>
@@ -11674,17 +11656,17 @@
       <c r="K183" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L183" s="1">
-        <v>9</v>
-      </c>
-      <c r="M183" s="1">
-        <v>0</v>
+      <c r="L183" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M183" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O183" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O183" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P183" s="1" t="s">
         <v>92</v>
@@ -11727,17 +11709,17 @@
       <c r="K184" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L184" s="1">
-        <v>9</v>
-      </c>
-      <c r="M184" s="1">
-        <v>0</v>
+      <c r="L184" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M184" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N184" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O184" s="1">
-        <v>0</v>
+      <c r="O184" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P184" s="1" t="s">
         <v>92</v>
@@ -11780,17 +11762,17 @@
       <c r="K185" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L185" s="1">
-        <v>14</v>
-      </c>
-      <c r="M185" s="1">
-        <v>30</v>
+      <c r="L185" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M185" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N185" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O185" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P185" s="1" t="s">
         <v>92</v>
@@ -11833,17 +11815,17 @@
       <c r="K186" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L186" s="1">
-        <v>11</v>
-      </c>
-      <c r="M186" s="1">
-        <v>0</v>
+      <c r="L186" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M186" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O186" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O186" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P186" s="1" t="s">
         <v>92</v>
@@ -11886,11 +11868,11 @@
       <c r="K187" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L187" s="1">
-        <v>13</v>
-      </c>
-      <c r="M187" s="1">
-        <v>0</v>
+      <c r="L187" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M187" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N187" s="1" t="s">
         <v>159</v>
@@ -11939,17 +11921,17 @@
       <c r="K188" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L188" s="1">
-        <v>15</v>
-      </c>
-      <c r="M188" s="1">
-        <v>0</v>
+      <c r="L188" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M188" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O188" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P188" s="1" t="s">
         <v>92</v>
@@ -11992,17 +11974,17 @@
       <c r="K189" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L189" s="1">
-        <v>10</v>
-      </c>
-      <c r="M189" s="1">
-        <v>0</v>
+      <c r="L189" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M189" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N189" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O189" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P189" s="1" t="s">
         <v>92</v>
@@ -12045,17 +12027,17 @@
       <c r="K190" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L190" s="1">
-        <v>13</v>
-      </c>
-      <c r="M190" s="1">
-        <v>0</v>
+      <c r="L190" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M190" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N190" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O190" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P190" s="1" t="s">
         <v>92</v>
@@ -12098,17 +12080,17 @@
       <c r="K191" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L191" s="1">
-        <v>13</v>
-      </c>
-      <c r="M191" s="1">
-        <v>0</v>
+      <c r="L191" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M191" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N191" s="1" t="s">
         <v>245</v>
       </c>
       <c r="O191" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P191" s="1" t="s">
         <v>92</v>
@@ -12151,17 +12133,17 @@
       <c r="K192" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L192" s="1">
-        <v>14</v>
-      </c>
-      <c r="M192" s="1">
-        <v>30</v>
+      <c r="L192" s="1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M192" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N192" s="1" t="s">
         <v>159</v>
       </c>
       <c r="O192" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P192" s="1" t="s">
         <v>92</v>
@@ -12204,17 +12186,17 @@
       <c r="K193" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L193" s="1">
-        <v>14</v>
-      </c>
-      <c r="M193" s="1">
-        <v>30</v>
+      <c r="L193" s="1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M193" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N193" s="1" t="s">
         <v>163</v>
       </c>
       <c r="O193" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P193" s="1" t="s">
         <v>92</v>
@@ -12257,17 +12239,17 @@
       <c r="K194" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L194" s="1">
-        <v>8</v>
-      </c>
-      <c r="M194" s="1">
-        <v>0</v>
+      <c r="L194" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M194" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N194" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O194" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O194" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P194" s="1" t="s">
         <v>92</v>
@@ -12310,17 +12292,17 @@
       <c r="K195" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L195" s="1">
-        <v>8</v>
-      </c>
-      <c r="M195" s="1">
-        <v>0</v>
+      <c r="L195" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M195" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N195" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O195" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O195" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P195" s="1" t="s">
         <v>92</v>
@@ -12363,17 +12345,17 @@
       <c r="K196" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L196" s="1">
-        <v>13</v>
-      </c>
-      <c r="M196" s="1">
-        <v>0</v>
+      <c r="L196" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M196" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N196" s="1" t="s">
         <v>158</v>
       </c>
       <c r="O196" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P196" s="1" t="s">
         <v>92</v>
@@ -12416,17 +12398,17 @@
       <c r="K197" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L197" s="1">
-        <v>14</v>
-      </c>
-      <c r="M197" s="1">
-        <v>30</v>
+      <c r="L197" s="1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M197" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N197" s="1" t="s">
         <v>245</v>
       </c>
       <c r="O197" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P197" s="1" t="s">
         <v>92</v>
@@ -12469,17 +12451,17 @@
       <c r="K198" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L198" s="1">
-        <v>9</v>
-      </c>
-      <c r="M198" s="1">
-        <v>30</v>
+      <c r="L198" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M198" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N198" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O198" s="1">
-        <v>0</v>
+      <c r="O198" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P198" s="1" t="s">
         <v>92</v>
@@ -12522,11 +12504,11 @@
       <c r="K199" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L199" s="1">
-        <v>16</v>
-      </c>
-      <c r="M199" s="1">
-        <v>0</v>
+      <c r="L199" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M199" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N199" s="1" t="s">
         <v>163</v>
@@ -12575,17 +12557,17 @@
       <c r="K200" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L200" s="1">
-        <v>13</v>
-      </c>
-      <c r="M200" s="1">
-        <v>0</v>
+      <c r="L200" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M200" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N200" s="1" t="s">
         <v>161</v>
       </c>
       <c r="O200" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P200" s="1" t="s">
         <v>92</v>
@@ -12628,11 +12610,11 @@
       <c r="K201" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="L201" s="1">
-        <v>15</v>
-      </c>
-      <c r="M201" s="1">
-        <v>0</v>
+      <c r="L201" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M201" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N201" s="1" t="s">
         <v>158</v>
@@ -12681,17 +12663,17 @@
       <c r="K202" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L202" s="1">
-        <v>15</v>
-      </c>
-      <c r="M202" s="1">
-        <v>0</v>
+      <c r="L202" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M202" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N202" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O202" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P202" s="1" t="s">
         <v>92</v>
@@ -12734,17 +12716,17 @@
       <c r="K203" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L203" s="1">
-        <v>13</v>
-      </c>
-      <c r="M203" s="1">
-        <v>0</v>
+      <c r="L203" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M203" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N203" s="1" t="s">
         <v>160</v>
       </c>
       <c r="O203" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P203" s="1" t="s">
         <v>92</v>
@@ -12787,17 +12769,17 @@
       <c r="K204" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L204" s="1">
-        <v>13</v>
-      </c>
-      <c r="M204" s="1">
-        <v>0</v>
+      <c r="L204" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M204" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N204" s="1" t="s">
         <v>161</v>
       </c>
       <c r="O204" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P204" s="1" t="s">
         <v>92</v>
@@ -12840,17 +12822,17 @@
       <c r="K205" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L205" s="1">
-        <v>8</v>
-      </c>
-      <c r="M205" s="1">
-        <v>0</v>
+      <c r="L205" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M205" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N205" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O205" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O205" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P205" s="1" t="s">
         <v>92</v>
@@ -12893,17 +12875,17 @@
       <c r="K206" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L206" s="1">
-        <v>13</v>
-      </c>
-      <c r="M206" s="1">
-        <v>0</v>
+      <c r="L206" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M206" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N206" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="O206" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P206" s="1" t="s">
         <v>92</v>
@@ -12946,17 +12928,17 @@
       <c r="K207" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L207" s="1">
-        <v>13</v>
-      </c>
-      <c r="M207" s="1">
-        <v>0</v>
+      <c r="L207" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M207" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N207" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O207" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P207" s="1" t="s">
         <v>92</v>
@@ -12999,17 +12981,17 @@
       <c r="K208" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L208" s="1">
-        <v>14</v>
-      </c>
-      <c r="M208" s="1">
-        <v>0</v>
+      <c r="L208" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M208" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O208" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P208" s="1" t="s">
         <v>92</v>
@@ -13052,17 +13034,17 @@
       <c r="K209" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L209" s="1">
-        <v>15</v>
-      </c>
-      <c r="M209" s="1">
-        <v>0</v>
+      <c r="L209" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M209" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N209" s="1" t="s">
         <v>160</v>
       </c>
       <c r="O209" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P209" s="1" t="s">
         <v>92</v>
@@ -13105,17 +13087,17 @@
       <c r="K210" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L210" s="1">
-        <v>8</v>
-      </c>
-      <c r="M210" s="1">
-        <v>0</v>
+      <c r="L210" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M210" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O210" s="1">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="O210" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P210" s="1" t="s">
         <v>92</v>
@@ -13158,17 +13140,17 @@
       <c r="K211" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L211" s="1">
-        <v>13</v>
-      </c>
-      <c r="M211" s="1">
-        <v>0</v>
+      <c r="L211" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M211" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O211" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P211" s="1" t="s">
         <v>92</v>
@@ -13211,17 +13193,17 @@
       <c r="K212" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L212" s="1">
-        <v>8</v>
-      </c>
-      <c r="M212" s="1">
-        <v>0</v>
+      <c r="L212" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M212" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N212" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O212" s="1">
-        <v>0</v>
+      <c r="O212" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P212" s="1" t="s">
         <v>92</v>
@@ -13264,17 +13246,17 @@
       <c r="K213" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L213" s="1">
-        <v>8</v>
-      </c>
-      <c r="M213" s="1">
-        <v>0</v>
+      <c r="L213" s="1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M213" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O213" s="1">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="O213" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P213" s="1" t="s">
         <v>92</v>
@@ -13317,17 +13299,17 @@
       <c r="K214" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L214" s="1">
-        <v>8</v>
-      </c>
-      <c r="M214" s="1">
-        <v>0</v>
+      <c r="L214" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M214" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N214" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O214" s="1">
-        <v>0</v>
+      <c r="O214" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P214" s="1" t="s">
         <v>92</v>
@@ -13370,17 +13352,17 @@
       <c r="K215" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L215" s="1">
-        <v>9</v>
-      </c>
-      <c r="M215" s="1">
-        <v>30</v>
+      <c r="L215" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M215" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O215" s="1">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="O215" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P215" s="1" t="s">
         <v>92</v>
@@ -13423,17 +13405,17 @@
       <c r="K216" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L216" s="1">
-        <v>13</v>
-      </c>
-      <c r="M216" s="1">
-        <v>0</v>
+      <c r="L216" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M216" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="O216" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P216" s="1" t="s">
         <v>92</v>
@@ -13476,17 +13458,17 @@
       <c r="K217" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L217" s="1">
-        <v>15</v>
-      </c>
-      <c r="M217" s="1">
-        <v>0</v>
+      <c r="L217" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M217" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O217" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="P217" s="1" t="s">
         <v>92</v>
@@ -13529,17 +13511,17 @@
       <c r="K218" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L218" s="1">
-        <v>9</v>
-      </c>
-      <c r="M218" s="1">
-        <v>30</v>
+      <c r="L218" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M218" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O218" s="1">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="O218" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P218" s="1" t="s">
         <v>92</v>
@@ -13582,17 +13564,17 @@
       <c r="K219" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L219" s="1">
-        <v>8</v>
-      </c>
-      <c r="M219" s="1">
-        <v>0</v>
+      <c r="L219" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M219" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N219" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O219" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O219" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P219" s="1" t="s">
         <v>92</v>
@@ -13635,17 +13617,17 @@
       <c r="K220" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L220" s="1">
-        <v>9</v>
-      </c>
-      <c r="M220" s="1">
-        <v>0</v>
+      <c r="L220" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M220" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O220" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="P220" s="1" t="s">
         <v>92</v>
@@ -13688,17 +13670,17 @@
       <c r="K221" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L221" s="1">
-        <v>10</v>
-      </c>
-      <c r="M221" s="1">
-        <v>0</v>
+      <c r="L221" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M221" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O221" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O221" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P221" s="1" t="s">
         <v>92</v>
@@ -13741,17 +13723,17 @@
       <c r="K222" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L222" s="1">
-        <v>10</v>
-      </c>
-      <c r="M222" s="1">
-        <v>0</v>
+      <c r="L222" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M222" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N222" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O222" s="1">
-        <v>0</v>
+      <c r="O222" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P222" s="1" t="s">
         <v>92</v>
@@ -13794,17 +13776,17 @@
       <c r="K223" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="L223" s="1">
-        <v>11</v>
-      </c>
-      <c r="M223" s="1">
-        <v>30</v>
+      <c r="L223" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M223" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O223" s="1">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="O223" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P223" s="1" t="s">
         <v>92</v>
@@ -13847,11 +13829,11 @@
       <c r="K224" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L224" s="1">
-        <v>13</v>
-      </c>
-      <c r="M224" s="1">
-        <v>0</v>
+      <c r="L224" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M224" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N224" s="1" t="s">
         <v>159</v>
@@ -13900,11 +13882,11 @@
       <c r="K225" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L225" s="1">
-        <v>15</v>
-      </c>
-      <c r="M225" s="1">
-        <v>0</v>
+      <c r="L225" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M225" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N225" s="1" t="s">
         <v>162</v>
@@ -13953,11 +13935,11 @@
       <c r="K226" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L226" s="1">
-        <v>13</v>
-      </c>
-      <c r="M226" s="1">
-        <v>0</v>
+      <c r="L226" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M226" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N226" s="1" t="s">
         <v>161</v>
@@ -14006,11 +13988,11 @@
       <c r="K227" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L227" s="1">
-        <v>13</v>
-      </c>
-      <c r="M227" s="1">
-        <v>0</v>
+      <c r="L227" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M227" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N227" s="1" t="s">
         <v>162</v>
@@ -14059,17 +14041,17 @@
       <c r="K228" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L228" s="1">
-        <v>8</v>
-      </c>
-      <c r="M228" s="1">
-        <v>0</v>
+      <c r="L228" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M228" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N228" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O228" s="1">
-        <v>0</v>
+      <c r="O228" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P228" s="1" t="s">
         <v>92</v>
@@ -14112,17 +14094,17 @@
       <c r="K229" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L229" s="1">
-        <v>9</v>
-      </c>
-      <c r="M229" s="1">
-        <v>0</v>
+      <c r="L229" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M229" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O229" s="1">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="O229" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P229" s="1" t="s">
         <v>92</v>
@@ -14165,17 +14147,17 @@
       <c r="K230" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L230" s="1">
-        <v>8</v>
-      </c>
-      <c r="M230" s="1">
-        <v>0</v>
+      <c r="L230" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M230" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O230" s="1">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="O230" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P230" s="1" t="s">
         <v>92</v>
@@ -14218,17 +14200,17 @@
       <c r="K231" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L231" s="1">
-        <v>9</v>
-      </c>
-      <c r="M231" s="1">
-        <v>0</v>
+      <c r="L231" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M231" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O231" s="1">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="O231" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P231" s="1" t="s">
         <v>92</v>
@@ -14271,11 +14253,11 @@
       <c r="K232" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L232" s="1">
-        <v>16</v>
-      </c>
-      <c r="M232" s="1">
-        <v>0</v>
+      <c r="L232" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M232" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N232" s="1" t="s">
         <v>160</v>
@@ -14324,11 +14306,11 @@
       <c r="K233" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L233" s="1">
-        <v>15</v>
-      </c>
-      <c r="M233" s="1">
-        <v>0</v>
+      <c r="L233" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M233" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N233" s="1" t="s">
         <v>161</v>
@@ -14377,11 +14359,11 @@
       <c r="K234" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L234" s="1">
-        <v>13</v>
-      </c>
-      <c r="M234" s="1">
-        <v>0</v>
+      <c r="L234" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M234" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N234" s="1" t="s">
         <v>158</v>
@@ -14430,17 +14412,17 @@
       <c r="K235" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L235" s="1">
-        <v>10</v>
-      </c>
-      <c r="M235" s="1">
-        <v>30</v>
+      <c r="L235" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M235" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O235" s="1">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="O235" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P235" s="1" t="s">
         <v>92</v>
@@ -14483,11 +14465,11 @@
       <c r="K236" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L236" s="1">
-        <v>14</v>
-      </c>
-      <c r="M236" s="1">
-        <v>30</v>
+      <c r="L236" s="1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M236" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N236" s="1" t="s">
         <v>159</v>
@@ -14536,17 +14518,17 @@
       <c r="K237" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L237" s="1">
-        <v>8</v>
-      </c>
-      <c r="M237" s="1">
-        <v>0</v>
+      <c r="L237" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M237" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N237" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O237" s="1">
-        <v>0</v>
+      <c r="O237" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P237" s="1" t="s">
         <v>92</v>
@@ -14589,17 +14571,17 @@
       <c r="K238" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L238" s="1">
-        <v>8</v>
-      </c>
-      <c r="M238" s="1">
-        <v>0</v>
+      <c r="L238" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M238" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N238" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O238" s="1">
-        <v>0</v>
+      <c r="O238" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P238" s="1" t="s">
         <v>92</v>
@@ -14642,17 +14624,17 @@
       <c r="K239" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L239" s="1">
-        <v>10</v>
-      </c>
-      <c r="M239" s="1">
-        <v>30</v>
+      <c r="L239" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M239" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N239" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O239" s="1">
-        <v>0</v>
+      <c r="O239" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P239" s="1" t="s">
         <v>92</v>
@@ -14695,17 +14677,17 @@
       <c r="K240" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L240" s="1">
-        <v>9</v>
-      </c>
-      <c r="M240" s="1">
-        <v>30</v>
+      <c r="L240" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M240" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O240" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O240" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P240" s="1" t="s">
         <v>92</v>
@@ -14748,11 +14730,11 @@
       <c r="K241" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L241" s="1">
-        <v>13</v>
-      </c>
-      <c r="M241" s="1">
-        <v>0</v>
+      <c r="L241" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M241" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N241" s="1" t="s">
         <v>160</v>
@@ -14801,17 +14783,17 @@
       <c r="K242" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L242" s="1">
-        <v>8</v>
-      </c>
-      <c r="M242" s="1">
-        <v>0</v>
+      <c r="L242" s="1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M242" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N242" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O242" s="1">
-        <v>0</v>
+      <c r="O242" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P242" s="1" t="s">
         <v>92</v>
@@ -14854,11 +14836,11 @@
       <c r="K243" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L243" s="1">
-        <v>16</v>
-      </c>
-      <c r="M243" s="1">
-        <v>0</v>
+      <c r="L243" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M243" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N243" s="1" t="s">
         <v>162</v>
@@ -14907,17 +14889,17 @@
       <c r="K244" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L244" s="1">
-        <v>9</v>
-      </c>
-      <c r="M244" s="1">
-        <v>30</v>
+      <c r="L244" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M244" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O244" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O244" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P244" s="1" t="s">
         <v>92</v>
@@ -14960,11 +14942,11 @@
       <c r="K245" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L245" s="1">
-        <v>15</v>
-      </c>
-      <c r="M245" s="1">
-        <v>0</v>
+      <c r="L245" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M245" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N245" s="1" t="s">
         <v>158</v>
@@ -15013,11 +14995,11 @@
       <c r="K246" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L246" s="1">
-        <v>9</v>
-      </c>
-      <c r="M246" s="1">
-        <v>30</v>
+      <c r="L246" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M246" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>162</v>
@@ -15066,17 +15048,17 @@
       <c r="K247" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L247" s="1">
-        <v>8</v>
-      </c>
-      <c r="M247" s="1">
-        <v>0</v>
+      <c r="L247" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M247" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O247" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O247" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P247" s="1" t="s">
         <v>92</v>
@@ -15119,17 +15101,17 @@
       <c r="K248" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L248" s="1">
-        <v>13</v>
-      </c>
-      <c r="M248" s="1">
-        <v>0</v>
+      <c r="L248" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M248" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N248" s="1" t="s">
         <v>160</v>
       </c>
       <c r="O248" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P248" s="1" t="s">
         <v>92</v>
@@ -15172,17 +15154,17 @@
       <c r="K249" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L249" s="1">
-        <v>9</v>
-      </c>
-      <c r="M249" s="1">
-        <v>30</v>
+      <c r="L249" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M249" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O249" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O249" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P249" s="1" t="s">
         <v>92</v>
@@ -15225,17 +15207,17 @@
       <c r="K250" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L250" s="1">
-        <v>16</v>
-      </c>
-      <c r="M250" s="1">
-        <v>0</v>
+      <c r="L250" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M250" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="O250" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P250" s="1" t="s">
         <v>92</v>
@@ -15288,7 +15270,7 @@
         <v>162</v>
       </c>
       <c r="O251" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P251" s="1" t="s">
         <v>92</v>
@@ -15331,17 +15313,17 @@
       <c r="K252" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L252" s="1">
-        <v>8</v>
-      </c>
-      <c r="M252" s="1">
-        <v>0</v>
+      <c r="L252" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M252" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O252" s="1">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="O252" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P252" s="1" t="s">
         <v>92</v>
@@ -15384,17 +15366,17 @@
       <c r="K253" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L253" s="1">
-        <v>13</v>
-      </c>
-      <c r="M253" s="1">
-        <v>0</v>
+      <c r="L253" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M253" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N253" s="1" t="s">
         <v>161</v>
       </c>
       <c r="O253" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P253" s="1" t="s">
         <v>92</v>
@@ -15437,17 +15419,17 @@
       <c r="K254" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L254" s="1">
-        <v>13</v>
-      </c>
-      <c r="M254" s="1">
-        <v>0</v>
+      <c r="L254" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M254" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O254" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P254" s="1" t="s">
         <v>92</v>
@@ -15490,17 +15472,17 @@
       <c r="K255" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L255" s="1">
-        <v>16</v>
-      </c>
-      <c r="M255" s="1">
-        <v>0</v>
+      <c r="L255" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M255" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="O255" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="P255" s="1" t="s">
         <v>92</v>
@@ -15543,17 +15525,17 @@
       <c r="K256" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L256" s="1">
-        <v>8</v>
-      </c>
-      <c r="M256" s="1">
-        <v>0</v>
+      <c r="L256" s="1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M256" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O256" s="1">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="O256" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P256" s="1" t="s">
         <v>92</v>
@@ -15596,17 +15578,17 @@
       <c r="K257" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L257" s="1">
-        <v>9</v>
-      </c>
-      <c r="M257" s="1">
-        <v>30</v>
+      <c r="L257" s="1" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="M257" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N257" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="O257" s="1">
-        <v>0</v>
+      <c r="O257" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P257" s="1" t="s">
         <v>92</v>
@@ -15649,17 +15631,17 @@
       <c r="K258" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L258" s="1">
-        <v>13</v>
-      </c>
-      <c r="M258" s="1">
-        <v>0</v>
+      <c r="L258" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M258" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N258" s="1" t="s">
         <v>162</v>
       </c>
       <c r="O258" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P258" s="1" t="s">
         <v>92</v>
@@ -15712,7 +15694,7 @@
         <v>162</v>
       </c>
       <c r="O259" s="1">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P259" s="1" t="s">
         <v>92</v>
@@ -15755,17 +15737,17 @@
       <c r="K260" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L260" s="1">
-        <v>14</v>
-      </c>
-      <c r="M260" s="1">
-        <v>30</v>
+      <c r="L260" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M260" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N260" s="1" t="s">
         <v>158</v>
       </c>
       <c r="O260" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P260" s="1" t="s">
         <v>92</v>
@@ -15808,14 +15790,14 @@
       <c r="K261" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L261" s="1">
-        <v>16</v>
-      </c>
-      <c r="M261" s="1">
-        <v>0</v>
+      <c r="L261" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M261" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O261" s="1">
         <v>0</v>
@@ -15861,11 +15843,11 @@
       <c r="K262" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L262" s="1">
-        <v>17</v>
-      </c>
-      <c r="M262" s="1">
-        <v>0</v>
+      <c r="L262" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M262" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N262" s="1" t="s">
         <v>162</v>
@@ -15914,11 +15896,11 @@
       <c r="K263" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L263" s="1">
-        <v>12</v>
-      </c>
-      <c r="M263" s="1">
-        <v>30</v>
+      <c r="L263" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M263" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N263" s="1" t="s">
         <v>158</v>
@@ -15967,17 +15949,17 @@
       <c r="K264" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L264" s="1">
-        <v>8</v>
-      </c>
-      <c r="M264" s="1">
-        <v>0</v>
+      <c r="L264" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M264" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O264" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O264" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P264" s="1" t="s">
         <v>92</v>
@@ -16020,14 +16002,14 @@
       <c r="K265" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L265" s="1">
-        <v>17</v>
-      </c>
-      <c r="M265" s="1">
-        <v>30</v>
+      <c r="L265" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M265" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O265" s="1">
         <v>0</v>
@@ -16073,17 +16055,17 @@
       <c r="K266" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L266" s="1">
-        <v>10</v>
-      </c>
-      <c r="M266" s="1">
-        <v>30</v>
+      <c r="L266" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M266" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O266" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O266" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P266" s="1" t="s">
         <v>92</v>
@@ -16126,17 +16108,17 @@
       <c r="K267" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L267" s="1">
-        <v>12</v>
-      </c>
-      <c r="M267" s="1">
-        <v>0</v>
+      <c r="L267" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M267" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O267" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O267" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P267" s="1" t="s">
         <v>92</v>
@@ -16179,17 +16161,17 @@
       <c r="K268" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L268" s="1">
-        <v>8</v>
-      </c>
-      <c r="M268" s="1">
-        <v>0</v>
+      <c r="L268" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M268" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O268" s="1">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="O268" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P268" s="1" t="s">
         <v>92</v>
@@ -16232,17 +16214,17 @@
       <c r="K269" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L269" s="1">
-        <v>8</v>
-      </c>
-      <c r="M269" s="1">
-        <v>0</v>
+      <c r="L269" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M269" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O269" s="1">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="O269" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P269" s="1" t="s">
         <v>92</v>
@@ -16338,11 +16320,11 @@
       <c r="K271" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L271" s="1">
-        <v>13</v>
-      </c>
-      <c r="M271" s="1">
-        <v>0</v>
+      <c r="L271" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M271" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N271" s="1" t="s">
         <v>163</v>
@@ -16391,14 +16373,14 @@
       <c r="K272" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L272" s="1">
-        <v>13</v>
-      </c>
-      <c r="M272" s="1">
-        <v>0</v>
+      <c r="L272" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M272" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="O272" s="1">
         <v>0</v>
@@ -16444,17 +16426,17 @@
       <c r="K273" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L273" s="1">
-        <v>13</v>
-      </c>
-      <c r="M273" s="1">
-        <v>0</v>
+      <c r="L273" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M273" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O273" s="1">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="O273" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P273" s="1" t="s">
         <v>92</v>
@@ -16497,11 +16479,11 @@
       <c r="K274" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L274" s="1">
-        <v>8</v>
-      </c>
-      <c r="M274" s="1">
-        <v>0</v>
+      <c r="L274" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M274" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N274" s="1" t="s">
         <v>158</v>
@@ -16550,17 +16532,17 @@
       <c r="K275" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L275" s="1">
-        <v>13</v>
-      </c>
-      <c r="M275" s="1">
-        <v>0</v>
+      <c r="L275" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M275" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O275" s="1">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="O275" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P275" s="1" t="s">
         <v>92</v>
@@ -16603,17 +16585,17 @@
       <c r="K276" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L276" s="1">
-        <v>8</v>
-      </c>
-      <c r="M276" s="1">
-        <v>0</v>
+      <c r="L276" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M276" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O276" s="1">
-        <v>105</v>
+        <v>163</v>
+      </c>
+      <c r="O276" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P276" s="1" t="s">
         <v>92</v>
@@ -16656,17 +16638,17 @@
       <c r="K277" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L277" s="1">
-        <v>8</v>
-      </c>
-      <c r="M277" s="1">
-        <v>0</v>
+      <c r="L277" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M277" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O277" s="1">
-        <v>105</v>
+        <v>246</v>
+      </c>
+      <c r="O277" s="1" t="n">
+        <v>15.0</v>
       </c>
       <c r="P277" s="1" t="s">
         <v>92</v>
@@ -16709,17 +16691,17 @@
       <c r="K278" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L278" s="1">
-        <v>8</v>
-      </c>
-      <c r="M278" s="1">
-        <v>0</v>
+      <c r="L278" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M278" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N278" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="O278" s="1">
-        <v>105</v>
+      <c r="O278" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P278" s="1" t="s">
         <v>92</v>
@@ -16762,17 +16744,17 @@
       <c r="K279" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L279" s="1">
-        <v>13</v>
-      </c>
-      <c r="M279" s="1">
-        <v>0</v>
+      <c r="L279" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M279" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="O279" s="1">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="O279" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P279" s="1" t="s">
         <v>92</v>
@@ -16815,11 +16797,11 @@
       <c r="K280" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L280" s="1">
-        <v>8</v>
-      </c>
-      <c r="M280" s="1">
-        <v>0</v>
+      <c r="L280" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M280" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N280" s="1" t="s">
         <v>160</v>
@@ -16868,14 +16850,14 @@
       <c r="K281" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L281" s="1">
-        <v>9</v>
-      </c>
-      <c r="M281" s="1">
-        <v>0</v>
+      <c r="L281" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M281" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O281" s="1">
         <v>0</v>
@@ -16921,17 +16903,17 @@
       <c r="K282" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L282" s="1">
-        <v>13</v>
-      </c>
-      <c r="M282" s="1">
-        <v>0</v>
+      <c r="L282" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M282" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O282" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O282" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P282" s="1" t="s">
         <v>92</v>
@@ -16974,17 +16956,17 @@
       <c r="K283" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L283" s="1">
-        <v>9</v>
-      </c>
-      <c r="M283" s="1">
-        <v>0</v>
+      <c r="L283" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M283" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="O283" s="1">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="O283" s="1" t="n">
+        <v>15.0</v>
       </c>
       <c r="P283" s="1" t="s">
         <v>92</v>
@@ -17027,17 +17009,17 @@
       <c r="K284" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L284" s="1">
-        <v>13</v>
-      </c>
-      <c r="M284" s="1">
-        <v>0</v>
+      <c r="L284" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M284" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O284" s="1">
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="O284" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P284" s="1" t="s">
         <v>92</v>
@@ -17080,17 +17062,17 @@
       <c r="K285" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L285" s="1">
-        <v>13</v>
-      </c>
-      <c r="M285" s="1">
-        <v>0</v>
+      <c r="L285" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M285" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N285" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O285" s="1">
-        <v>0</v>
+      <c r="O285" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P285" s="1" t="s">
         <v>92</v>
@@ -17133,17 +17115,17 @@
       <c r="K286" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L286" s="1">
-        <v>8</v>
-      </c>
-      <c r="M286" s="1">
-        <v>0</v>
+      <c r="L286" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M286" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N286" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="O286" s="1">
-        <v>105</v>
+      <c r="O286" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P286" s="1" t="s">
         <v>92</v>
@@ -17186,17 +17168,17 @@
       <c r="K287" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L287" s="1">
-        <v>14</v>
-      </c>
-      <c r="M287" s="1">
-        <v>0</v>
+      <c r="L287" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M287" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N287" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O287" s="1">
-        <v>0</v>
+      <c r="O287" s="1" t="n">
+        <v>80.0</v>
       </c>
       <c r="P287" s="1" t="s">
         <v>92</v>
@@ -17239,17 +17221,17 @@
       <c r="K288" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L288" s="1">
-        <v>15</v>
-      </c>
-      <c r="M288" s="1">
-        <v>0</v>
+      <c r="L288" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M288" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O288" s="1">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="O288" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="P288" s="1" t="s">
         <v>92</v>
@@ -17292,17 +17274,17 @@
       <c r="K289" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L289" s="1">
-        <v>9</v>
-      </c>
-      <c r="M289" s="1">
-        <v>30</v>
+      <c r="L289" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M289" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N289" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O289" s="1">
-        <v>15</v>
+      <c r="O289" s="1" t="n">
+        <v>15.0</v>
       </c>
       <c r="P289" s="1" t="s">
         <v>92</v>
@@ -17345,17 +17327,17 @@
       <c r="K290" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L290" s="1">
-        <v>8</v>
-      </c>
-      <c r="M290" s="1">
-        <v>0</v>
+      <c r="L290" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M290" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N290" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O290" s="1">
-        <v>0</v>
+      <c r="O290" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P290" s="1" t="s">
         <v>92</v>
@@ -17398,14 +17380,14 @@
       <c r="K291" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L291" s="1">
-        <v>13</v>
-      </c>
-      <c r="M291" s="1">
-        <v>0</v>
+      <c r="L291" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M291" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N291" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O291" s="1">
         <v>0</v>
@@ -17451,14 +17433,14 @@
       <c r="K292" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L292" s="1">
-        <v>13</v>
-      </c>
-      <c r="M292" s="1">
-        <v>0</v>
+      <c r="L292" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M292" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N292" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O292" s="1">
         <v>0</v>
@@ -17504,17 +17486,17 @@
       <c r="K293" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L293" s="1">
-        <v>8</v>
-      </c>
-      <c r="M293" s="1">
-        <v>0</v>
+      <c r="L293" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M293" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N293" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O293" s="1">
-        <v>0</v>
+      <c r="O293" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P293" s="1" t="s">
         <v>92</v>
@@ -17557,14 +17539,14 @@
       <c r="K294" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L294" s="1">
-        <v>13</v>
-      </c>
-      <c r="M294" s="1">
-        <v>0</v>
+      <c r="L294" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M294" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N294" s="1" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="O294" s="1">
         <v>0</v>
@@ -17610,14 +17592,14 @@
       <c r="K295" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L295" s="1">
-        <v>13</v>
-      </c>
-      <c r="M295" s="1">
-        <v>0</v>
+      <c r="L295" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M295" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N295" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O295" s="1">
         <v>0</v>
@@ -17663,11 +17645,11 @@
       <c r="K296" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L296" s="1">
-        <v>13</v>
-      </c>
-      <c r="M296" s="1">
-        <v>0</v>
+      <c r="L296" s="1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M296" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N296" s="1" t="s">
         <v>246</v>
@@ -17716,14 +17698,14 @@
       <c r="K297" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L297" s="1">
-        <v>13</v>
-      </c>
-      <c r="M297" s="1">
-        <v>0</v>
+      <c r="L297" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M297" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N297" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O297" s="1">
         <v>0</v>
@@ -17769,14 +17751,14 @@
       <c r="K298" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L298" s="1">
-        <v>8</v>
-      </c>
-      <c r="M298" s="1">
-        <v>0</v>
+      <c r="L298" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M298" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N298" s="1" t="s">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="O298" s="1">
         <v>0</v>
@@ -17822,17 +17804,17 @@
       <c r="K299" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L299" s="1">
-        <v>8</v>
-      </c>
-      <c r="M299" s="1">
-        <v>0</v>
+      <c r="L299" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M299" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N299" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O299" s="1">
-        <v>0</v>
+      <c r="O299" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P299" s="1" t="s">
         <v>92</v>
@@ -17875,14 +17857,14 @@
       <c r="K300" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L300" s="1">
-        <v>14</v>
-      </c>
-      <c r="M300" s="1">
-        <v>0</v>
+      <c r="L300" s="1" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="M300" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N300" s="1" t="s">
-        <v>246</v>
+        <v>163</v>
       </c>
       <c r="O300" s="1">
         <v>0</v>
@@ -17928,17 +17910,17 @@
       <c r="K301" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L301" s="1">
-        <v>8</v>
-      </c>
-      <c r="M301" s="1">
-        <v>0</v>
+      <c r="L301" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M301" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N301" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="O301" s="1">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="O301" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="P301" s="1" t="s">
         <v>92</v>
@@ -17981,11 +17963,11 @@
       <c r="K302" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L302" s="1">
-        <v>14</v>
-      </c>
-      <c r="M302" s="1">
-        <v>30</v>
+      <c r="L302" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M302" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N302" s="1" t="s">
         <v>159</v>
@@ -18034,14 +18016,14 @@
       <c r="K303" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L303" s="1">
-        <v>14</v>
-      </c>
-      <c r="M303" s="1">
-        <v>30</v>
+      <c r="L303" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M303" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N303" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="O303" s="1">
         <v>0</v>
@@ -18087,11 +18069,11 @@
       <c r="K304" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L304" s="1">
-        <v>15</v>
-      </c>
-      <c r="M304" s="1">
-        <v>0</v>
+      <c r="L304" s="1" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="M304" s="1" t="n">
+        <v>30.0</v>
       </c>
       <c r="N304" s="1" t="s">
         <v>158</v>
@@ -18140,11 +18122,11 @@
       <c r="K305" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="L305" s="1">
-        <v>13</v>
-      </c>
-      <c r="M305" s="1">
-        <v>0</v>
+      <c r="L305" s="1" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="M305" s="1" t="n">
+        <v>0.0</v>
       </c>
       <c r="N305" s="1" t="s">
         <v>162</v>
@@ -18193,20 +18175,20 @@
       <c r="K306" t="s">
         <v>243</v>
       </c>
-      <c r="L306">
-        <v>0</v>
-      </c>
-      <c r="M306">
-        <v>0</v>
+      <c r="L306" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0.0</v>
       </c>
       <c r="N306" t="s">
-        <v>497</v>
-      </c>
-      <c r="O306">
+        <v>158</v>
+      </c>
+      <c r="O306" s="1">
         <v>0</v>
       </c>
       <c r="P306" t="s">
-        <v>498</v>
+        <v>92</v>
       </c>
       <c r="Q306" s="5" t="b">
         <v>1</v>
@@ -18246,16 +18228,16 @@
       <c r="K307" t="s">
         <v>244</v>
       </c>
-      <c r="L307">
-        <v>8</v>
-      </c>
-      <c r="M307">
-        <v>0</v>
+      <c r="L307" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0.0</v>
       </c>
       <c r="N307" t="s">
-        <v>160</v>
-      </c>
-      <c r="O307">
+        <v>161</v>
+      </c>
+      <c r="O307" s="1">
         <v>0</v>
       </c>
       <c r="P307" t="s">
